--- a/График сдачи.xlsx
+++ b/График сдачи.xlsx
@@ -456,15 +456,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -489,6 +485,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -793,7 +793,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,26 +804,26 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
       <c r="T1" s="13"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
@@ -954,7 +954,7 @@
       <c r="N4" s="16">
         <v>42331</v>
       </c>
-      <c r="O4" s="19">
+      <c r="O4" s="18">
         <v>42338</v>
       </c>
       <c r="P4" s="14"/>
@@ -997,33 +997,35 @@
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28">
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26">
         <v>1</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="31">
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="29">
         <v>2</v>
       </c>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="32">
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="30">
         <v>3</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30">
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28">
         <v>4</v>
       </c>
-      <c r="N6" s="30"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="25">
+      <c r="N6" s="28"/>
+      <c r="O6" s="31">
+        <v>5</v>
+      </c>
+      <c r="P6" s="23">
+        <v>5</v>
+      </c>
+      <c r="Q6">
         <v>4</v>
-      </c>
-      <c r="Q6">
-        <v>3</v>
       </c>
       <c r="R6" s="2"/>
       <c r="V6" s="2"/>
@@ -1034,37 +1036,37 @@
       <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="35">
+      <c r="B7" s="32"/>
+      <c r="C7" s="33">
         <v>1</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="31">
+      <c r="D7" s="27"/>
+      <c r="E7" s="29">
         <v>1</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="31">
+      <c r="F7" s="27"/>
+      <c r="G7" s="29">
         <v>2</v>
       </c>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29">
+      <c r="H7" s="27"/>
+      <c r="I7" s="27">
         <v>2</v>
       </c>
-      <c r="J7" s="42">
+      <c r="J7" s="40">
         <v>3</v>
       </c>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29">
+      <c r="K7" s="27"/>
+      <c r="L7" s="27">
         <v>4</v>
       </c>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="25">
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="23">
         <v>4</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R7" s="2"/>
       <c r="V7" s="2"/>
@@ -1075,39 +1077,39 @@
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="31">
+      <c r="B8" s="32"/>
+      <c r="C8" s="29">
         <v>1</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="31">
+      <c r="D8" s="27"/>
+      <c r="E8" s="29">
         <v>2</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="31">
+      <c r="F8" s="27"/>
+      <c r="G8" s="29">
         <v>3</v>
       </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="31">
+      <c r="H8" s="27"/>
+      <c r="I8" s="29">
         <v>4</v>
       </c>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29">
+      <c r="J8" s="27"/>
+      <c r="K8" s="27">
         <v>5</v>
       </c>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29">
+      <c r="L8" s="27"/>
+      <c r="M8" s="27">
         <v>6</v>
       </c>
-      <c r="N8" s="29"/>
-      <c r="O8" s="36">
+      <c r="N8" s="27"/>
+      <c r="O8" s="34">
         <v>7</v>
       </c>
-      <c r="P8" s="25">
+      <c r="P8" s="23">
         <v>7</v>
       </c>
-      <c r="Q8" s="25">
-        <v>4</v>
+      <c r="Q8" s="23">
+        <v>5</v>
       </c>
       <c r="R8" s="2"/>
       <c r="V8" s="2"/>
@@ -1118,33 +1120,33 @@
       <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="31">
+      <c r="B9" s="32"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="29">
         <v>1</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="31">
+      <c r="F9" s="27"/>
+      <c r="G9" s="29">
         <v>2</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="42">
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="40">
         <v>3</v>
       </c>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29">
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27">
         <v>4</v>
       </c>
-      <c r="N9" s="29"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="25">
+      <c r="N9" s="27"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="23">
         <v>4</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R9" s="2"/>
       <c r="V9" s="2"/>
@@ -1155,32 +1157,34 @@
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="31">
+      <c r="B10" s="32"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="29">
         <v>1</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="31">
+      <c r="E10" s="27"/>
+      <c r="F10" s="29">
         <v>2</v>
       </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="31">
+      <c r="G10" s="27"/>
+      <c r="H10" s="29">
         <v>3</v>
       </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="31">
+      <c r="I10" s="27"/>
+      <c r="J10" s="29">
         <v>4</v>
       </c>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29">
+      <c r="K10" s="27"/>
+      <c r="L10" s="27">
         <v>5</v>
       </c>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="25">
-        <v>5</v>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27">
+        <v>6</v>
+      </c>
+      <c r="O10" s="34"/>
+      <c r="P10" s="23">
+        <v>6</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -1194,33 +1198,35 @@
       <c r="A11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="39">
+      <c r="B11" s="35"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="37">
         <v>1</v>
       </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="39">
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="37">
         <v>2</v>
       </c>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="41">
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="39">
         <v>3</v>
       </c>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38">
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36">
         <v>4</v>
       </c>
-      <c r="N11" s="38"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="25">
-        <v>4</v>
+      <c r="N11" s="36"/>
+      <c r="O11" s="38">
+        <v>5</v>
+      </c>
+      <c r="P11" s="23">
+        <v>5</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R11" s="2"/>
       <c r="V11" s="2"/>
@@ -1243,17 +1249,17 @@
       <c r="M12" s="15"/>
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
-      <c r="P12" s="44">
+      <c r="P12" s="42">
         <f>SUM(P6:P11)</f>
-        <v>28</v>
-      </c>
-      <c r="Q12" s="45">
+        <v>31</v>
+      </c>
+      <c r="Q12" s="43">
         <f>SUM(Q6:Q11)</f>
-        <v>18</v>
-      </c>
-      <c r="R12" s="45">
+        <v>23</v>
+      </c>
+      <c r="R12" s="43">
         <f>P12-Q12</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
@@ -1279,22 +1285,22 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
       <c r="P14" s="13"/>
       <c r="Q14" s="13"/>
       <c r="R14" s="13"/>
@@ -1411,7 +1417,7 @@
       <c r="N17" s="16">
         <v>42331</v>
       </c>
-      <c r="O17" s="19">
+      <c r="O17" s="18">
         <v>42338</v>
       </c>
       <c r="P17" s="14"/>
@@ -1440,7 +1446,7 @@
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
-      <c r="O18" s="21"/>
+      <c r="O18" s="20"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="1"/>
@@ -1454,20 +1460,20 @@
       <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="43">
+      <c r="B19" s="48"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="41">
         <v>1</v>
       </c>
       <c r="P19" s="7"/>
@@ -1483,20 +1489,20 @@
       <c r="A20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="23">
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="22">
         <v>1</v>
       </c>
       <c r="P20" s="7"/>

--- a/График сдачи.xlsx
+++ b/График сдачи.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t xml:space="preserve">№ недели </t>
   </si>
@@ -56,12 +56,21 @@
   <si>
     <t>График сдачи курсовых работ на осенний семестр 2015/2016 учебного года</t>
   </si>
+  <si>
+    <t>количество лаб</t>
+  </si>
+  <si>
+    <t>сдал лаб</t>
+  </si>
+  <si>
+    <t>осталось сдать</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +90,14 @@
     <font>
       <b/>
       <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -469,26 +486,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -793,37 +810,40 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="6.140625" customWidth="1"/>
-    <col min="3" max="19" width="6.28515625" customWidth="1"/>
+    <col min="3" max="15" width="6.28515625" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" customWidth="1"/>
+    <col min="18" max="19" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
       <c r="T1" s="13"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
@@ -966,7 +986,7 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -984,8 +1004,12 @@
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="12"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
+      <c r="P5" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5" s="48" t="s">
+        <v>14</v>
+      </c>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
       <c r="U5" s="2"/>
@@ -1014,18 +1038,18 @@
       </c>
       <c r="K6" s="28"/>
       <c r="L6" s="28"/>
-      <c r="M6" s="28">
+      <c r="M6" s="30">
         <v>4</v>
       </c>
       <c r="N6" s="28"/>
-      <c r="O6" s="31">
+      <c r="O6" s="45">
         <v>5</v>
       </c>
       <c r="P6" s="23">
         <v>5</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R6" s="2"/>
       <c r="V6" s="2"/>
@@ -1036,8 +1060,8 @@
       <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="33">
+      <c r="B7" s="31"/>
+      <c r="C7" s="32">
         <v>1</v>
       </c>
       <c r="D7" s="27"/>
@@ -1049,19 +1073,19 @@
         <v>2</v>
       </c>
       <c r="H7" s="27"/>
-      <c r="I7" s="27">
+      <c r="I7" s="29">
         <v>2</v>
       </c>
-      <c r="J7" s="40">
+      <c r="J7" s="29">
         <v>3</v>
       </c>
       <c r="K7" s="27"/>
-      <c r="L7" s="27">
+      <c r="L7" s="29">
         <v>4</v>
       </c>
       <c r="M7" s="27"/>
       <c r="N7" s="27"/>
-      <c r="O7" s="34"/>
+      <c r="O7" s="33"/>
       <c r="P7" s="23">
         <v>4</v>
       </c>
@@ -1077,7 +1101,7 @@
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="32"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="29">
         <v>1</v>
       </c>
@@ -1094,22 +1118,22 @@
         <v>4</v>
       </c>
       <c r="J8" s="27"/>
-      <c r="K8" s="27">
+      <c r="K8" s="29">
         <v>5</v>
       </c>
       <c r="L8" s="27"/>
-      <c r="M8" s="27">
+      <c r="M8" s="29">
         <v>6</v>
       </c>
       <c r="N8" s="27"/>
-      <c r="O8" s="34">
+      <c r="O8" s="46">
         <v>7</v>
       </c>
       <c r="P8" s="23">
         <v>7</v>
       </c>
       <c r="Q8" s="23">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R8" s="2"/>
       <c r="V8" s="2"/>
@@ -1120,7 +1144,7 @@
       <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="32"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
       <c r="E9" s="29">
@@ -1132,21 +1156,21 @@
       </c>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="40">
+      <c r="J9" s="29">
         <v>3</v>
       </c>
       <c r="K9" s="27"/>
       <c r="L9" s="27"/>
-      <c r="M9" s="27">
+      <c r="M9" s="29">
         <v>4</v>
       </c>
       <c r="N9" s="27"/>
-      <c r="O9" s="34"/>
+      <c r="O9" s="33"/>
       <c r="P9" s="23">
         <v>4</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R9" s="2"/>
       <c r="V9" s="2"/>
@@ -1157,7 +1181,7 @@
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="32"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="27"/>
       <c r="D10" s="29">
         <v>1</v>
@@ -1175,19 +1199,19 @@
         <v>4</v>
       </c>
       <c r="K10" s="27"/>
-      <c r="L10" s="27">
+      <c r="L10" s="29">
         <v>5</v>
       </c>
       <c r="M10" s="27"/>
-      <c r="N10" s="27">
+      <c r="N10" s="29">
         <v>6</v>
       </c>
-      <c r="O10" s="34"/>
+      <c r="O10" s="33"/>
       <c r="P10" s="23">
         <v>6</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R10" s="2"/>
       <c r="V10" s="2"/>
@@ -1198,37 +1222,36 @@
       <c r="A11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="37">
+      <c r="B11" s="34"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="36">
         <v>1</v>
       </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="37">
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36">
         <v>2</v>
       </c>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="39">
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="36">
         <v>3</v>
       </c>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
       <c r="M11" s="36">
         <v>4</v>
       </c>
-      <c r="N11" s="36"/>
-      <c r="O11" s="38">
+      <c r="N11" s="35"/>
+      <c r="O11" s="47">
         <v>5</v>
       </c>
       <c r="P11" s="23">
         <v>5</v>
       </c>
       <c r="Q11">
-        <v>3</v>
-      </c>
-      <c r="R11" s="2"/>
+        <v>5</v>
+      </c>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
@@ -1249,23 +1272,19 @@
       <c r="M12" s="15"/>
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
-      <c r="P12" s="42">
+      <c r="P12" s="38">
         <f>SUM(P6:P11)</f>
         <v>31</v>
       </c>
-      <c r="Q12" s="43">
+      <c r="Q12" s="39">
         <f>SUM(Q6:Q11)</f>
-        <v>23</v>
-      </c>
-      <c r="R12" s="43">
-        <f>P12-Q12</f>
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
@@ -1281,26 +1300,32 @@
       <c r="M13" s="15"/>
       <c r="N13" s="15"/>
       <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
+      <c r="P13" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q13" s="39">
+        <f>P12-Q12</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
       <c r="P14" s="13"/>
       <c r="Q14" s="13"/>
       <c r="R14" s="13"/>
@@ -1460,20 +1485,20 @@
       <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
       <c r="L19" s="19"/>
       <c r="M19" s="19"/>
       <c r="N19" s="19"/>
-      <c r="O19" s="41">
+      <c r="O19" s="37">
         <v>1</v>
       </c>
       <c r="P19" s="7"/>
@@ -1489,16 +1514,16 @@
       <c r="A20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
       <c r="L20" s="21"/>
       <c r="M20" s="21"/>
       <c r="N20" s="21"/>
